--- a/Тест кейс Онлайн-трейдинг.xlsx
+++ b/Тест кейс Онлайн-трейдинг.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
   <si>
     <t>№</t>
   </si>
@@ -673,12 +673,21 @@
 Необходимые для заполнения поля подсветились красным. 
 Под необходимыми для заполнения полями появились тексты ошибок. Ошибки внятные и читаемые.</t>
   </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -834,6 +843,13 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -960,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1096,23 +1112,37 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,10 +1450,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A2:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1436,637 +1466,669 @@
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2">
-      <c r="A1" s="47" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F2" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="48">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.2">
+      <c r="A4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="49" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="1" t="s">
+    <row r="5" spans="1:7" ht="13.2">
+      <c r="A5" s="58"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="2" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="100.8">
-      <c r="A3" s="3">
+    <row r="6" spans="1:7" ht="100.8">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="100.8">
-      <c r="A4" s="7">
+      <c r="G6" s="49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="100.8">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="100.8">
-      <c r="A5" s="7">
+      <c r="G7" s="49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="100.8">
+      <c r="A8" s="7">
         <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="144">
-      <c r="A6" s="54">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="144">
-      <c r="A7" s="48"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="86.4">
-      <c r="A8" s="7">
-        <v>5</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="144">
+      <c r="A9" s="57">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="144">
+      <c r="A10" s="58"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="86.4">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="172.8">
-      <c r="A9" s="7">
+      <c r="F11" s="5"/>
+      <c r="G11" s="51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="172.8">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="72">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="72">
+      <c r="A13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="129.6">
-      <c r="A11" s="7">
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="129.6">
+      <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F14" s="11">
         <v>89051051515</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="144">
-      <c r="A12" s="7">
+      <c r="G14" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="144">
+      <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F15" s="11">
         <v>1154896</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="129.6">
-      <c r="A13" s="7">
-        <v>1</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="G15" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="129.6">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="15" t="s">
+      <c r="G16" s="60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="129.6">
-      <c r="A15" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="115.2">
-      <c r="A16" s="7">
-        <v>2</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="62.4">
-      <c r="A17" s="7">
-        <v>3</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:8" ht="86.4">
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="129.6">
       <c r="A18" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="20" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" ht="78">
+        <v>47</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="115.2">
       <c r="A19" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" ht="144">
+        <v>51</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="62.4">
       <c r="A20" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="20" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="129.6">
+        <v>55</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="86.4">
       <c r="A21" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>65</v>
+      <c r="C21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="78">
+        <v>58</v>
+      </c>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" ht="78">
       <c r="A22" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="20" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="93.6">
+    <row r="23" spans="1:6" ht="144">
       <c r="A23" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="78">
+    <row r="24" spans="1:6" ht="129.6">
       <c r="A24" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>74</v>
+      <c r="C24" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="78">
+    <row r="25" spans="1:6" ht="78">
       <c r="A25" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" ht="93.6">
+      <c r="A26" s="7">
+        <v>18</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" ht="78">
+      <c r="A27" s="7">
+        <v>19</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" ht="78">
+      <c r="A28" s="7">
+        <v>20</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D28" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="140.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23" t="s">
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="140.4">
+      <c r="A29" s="3">
+        <v>21</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D29" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E29" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" spans="1:8" ht="140.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.399999999999999">
-      <c r="A28" s="3"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" ht="46.8">
-      <c r="A29" s="3"/>
-      <c r="B29" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>87</v>
-      </c>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:8" ht="90" customHeight="1">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:6" ht="140.4">
+      <c r="A30" s="3">
+        <v>22</v>
+      </c>
       <c r="B30" s="22"/>
       <c r="C30" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="90" customHeight="1">
+        <v>47</v>
+      </c>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.399999999999999">
       <c r="A31" s="3"/>
       <c r="B31" s="22"/>
-      <c r="C31" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="147.75" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>96</v>
+      <c r="C31" s="27"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" ht="46.8">
+      <c r="A32" s="3">
+        <v>23</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:8" ht="90" customHeight="1">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>24</v>
+      </c>
       <c r="B33" s="22"/>
       <c r="C33" s="23" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="163.5" customHeight="1">
-      <c r="A34" s="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="90" customHeight="1">
+      <c r="A34" s="3">
+        <v>25</v>
+      </c>
       <c r="B34" s="22"/>
       <c r="C34" s="23" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="201" customHeight="1">
-      <c r="A35" s="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="147.75" customHeight="1">
+      <c r="A35" s="3">
+        <v>26</v>
+      </c>
       <c r="B35" s="22"/>
       <c r="C35" s="23" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="92.25" customHeight="1">
-      <c r="A36" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="90" customHeight="1">
+      <c r="A36" s="3">
+        <v>27</v>
+      </c>
       <c r="B36" s="22"/>
       <c r="C36" s="23" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="92.25" customHeight="1">
-      <c r="A37" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="163.5" customHeight="1">
+      <c r="A37" s="3">
+        <v>28</v>
+      </c>
       <c r="B37" s="22"/>
       <c r="C37" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="201" customHeight="1">
+      <c r="A38" s="3">
+        <v>29</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="92.25" customHeight="1">
+      <c r="A39" s="3">
+        <v>30</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="92.25" customHeight="1">
+      <c r="A40" s="3">
+        <v>31</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D40" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E40" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:8" ht="124.8">
-      <c r="A38" s="3"/>
-      <c r="B38" s="22" t="s">
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" ht="124.8">
+      <c r="A41" s="3">
+        <v>32</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C41" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E41" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="26"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.6">
-      <c r="A39" s="3"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="26"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.6">
-      <c r="A40" s="3"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="26"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.6">
-      <c r="A41" s="3"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
       <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:8" ht="15.6">
@@ -2080,161 +2142,186 @@
     <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="3"/>
       <c r="B43" s="19"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="12"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:8" ht="18">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="3"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" ht="18">
+      <c r="B44" s="19"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="3"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="12"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="3"/>
       <c r="B46" s="19"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="12"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.4">
-      <c r="A47" s="39"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" ht="18">
+      <c r="A47" s="3"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
-      <c r="A48" s="39"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
+    <row r="48" spans="1:8" ht="18">
+      <c r="A48" s="3"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" ht="15.6">
       <c r="A49" s="3"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.4">
+      <c r="A50" s="39"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.6">
+      <c r="A51" s="39"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.6">
+      <c r="A52" s="3"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="26"/>
-    </row>
-    <row r="50" spans="1:6" ht="187.2">
-      <c r="A50" s="3">
+      <c r="E52" s="12"/>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:6" ht="187.2">
+      <c r="A53" s="3">
         <v>11</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B53" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C53" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D53" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E53" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F50" s="41" t="s">
+      <c r="F53" s="41" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="129.6">
-      <c r="A51" s="3">
+    <row r="54" spans="1:6" ht="129.6">
+      <c r="A54" s="3">
         <v>12</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B54" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C54" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D54" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E54" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="41"/>
-    </row>
-    <row r="52" spans="1:6" ht="72">
-      <c r="A52" s="3">
+      <c r="F54" s="41"/>
+    </row>
+    <row r="55" spans="1:6" ht="72">
+      <c r="A55" s="3">
         <v>13</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="45" t="s">
+      <c r="B55" s="44"/>
+      <c r="C55" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D55" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E55" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="41"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.4">
-      <c r="A53" s="39"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-    </row>
-    <row r="54" spans="1:6" ht="100.8">
-      <c r="A54" s="39"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="46" t="s">
+      <c r="F55" s="41"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.4">
+      <c r="A56" s="39"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+    </row>
+    <row r="57" spans="1:6" ht="100.8">
+      <c r="A57" s="39"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D57" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E57" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="41"/>
+      <c r="F57" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="G9">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G6))&gt;0</formula>
+      <formula>LEN(TRIM(G9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F30" r:id="rId1"/>
-    <hyperlink ref="F31" r:id="rId2"/>
-    <hyperlink ref="F32" r:id="rId3"/>
-    <hyperlink ref="F33" r:id="rId4"/>
-    <hyperlink ref="F34" r:id="rId5"/>
-    <hyperlink ref="F35" r:id="rId6"/>
-    <hyperlink ref="F36" r:id="rId7"/>
+    <hyperlink ref="F33" r:id="rId1"/>
+    <hyperlink ref="F34" r:id="rId2"/>
+    <hyperlink ref="F35" r:id="rId3"/>
+    <hyperlink ref="F36" r:id="rId4"/>
+    <hyperlink ref="F37" r:id="rId5"/>
+    <hyperlink ref="F38" r:id="rId6"/>
+    <hyperlink ref="F39" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>